--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Vwf-Gp1ba.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Vwf-Gp1ba.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.765109733567</v>
+        <v>33.00563866666667</v>
       </c>
       <c r="H2">
-        <v>26.765109733567</v>
+        <v>99.01691600000001</v>
       </c>
       <c r="I2">
-        <v>0.9237538665265977</v>
+        <v>0.9169150302490913</v>
       </c>
       <c r="J2">
-        <v>0.9237538665265977</v>
+        <v>0.9169150302490912</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.65960072191253</v>
+        <v>2.386787</v>
       </c>
       <c r="N2">
-        <v>1.65960072191253</v>
+        <v>7.160361</v>
       </c>
       <c r="O2">
-        <v>0.1703245001016714</v>
+        <v>0.2248318673684458</v>
       </c>
       <c r="P2">
-        <v>0.1703245001016714</v>
+        <v>0.2248318673684458</v>
       </c>
       <c r="Q2">
-        <v>44.41939543589588</v>
+        <v>78.77742929629734</v>
       </c>
       <c r="R2">
-        <v>44.41939543589588</v>
+        <v>708.9968636666761</v>
       </c>
       <c r="S2">
-        <v>0.1573379155331288</v>
+        <v>0.2061517184690982</v>
       </c>
       <c r="T2">
-        <v>0.1573379155331288</v>
+        <v>0.2061517184690982</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.765109733567</v>
+        <v>33.00563866666667</v>
       </c>
       <c r="H3">
-        <v>26.765109733567</v>
+        <v>99.01691600000001</v>
       </c>
       <c r="I3">
-        <v>0.9237538665265977</v>
+        <v>0.9169150302490913</v>
       </c>
       <c r="J3">
-        <v>0.9237538665265977</v>
+        <v>0.9169150302490912</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.86547082758351</v>
+        <v>4.875491666666666</v>
       </c>
       <c r="N3">
-        <v>4.86547082758351</v>
+        <v>14.626475</v>
       </c>
       <c r="O3">
-        <v>0.4993423270582937</v>
+        <v>0.4592642308492391</v>
       </c>
       <c r="P3">
-        <v>0.4993423270582937</v>
+        <v>0.4592642308492391</v>
       </c>
       <c r="Q3">
-        <v>130.2248606057417</v>
+        <v>160.9187162723445</v>
       </c>
       <c r="R3">
-        <v>130.2248606057417</v>
+        <v>1448.2684464511</v>
       </c>
       <c r="S3">
-        <v>0.4612694053404877</v>
+        <v>0.4211062761214557</v>
       </c>
       <c r="T3">
-        <v>0.4612694053404877</v>
+        <v>0.4211062761214557</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.765109733567</v>
+        <v>33.00563866666667</v>
       </c>
       <c r="H4">
-        <v>26.765109733567</v>
+        <v>99.01691600000001</v>
       </c>
       <c r="I4">
-        <v>0.9237538665265977</v>
+        <v>0.9169150302490913</v>
       </c>
       <c r="J4">
-        <v>0.9237538665265977</v>
+        <v>0.9169150302490912</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8067048253879791</v>
+        <v>0.8868146666666666</v>
       </c>
       <c r="N4">
-        <v>0.8067048253879791</v>
+        <v>2.660444</v>
       </c>
       <c r="O4">
-        <v>0.08279195971635367</v>
+        <v>0.08353665304712675</v>
       </c>
       <c r="P4">
-        <v>0.08279195971635367</v>
+        <v>0.08353665304712675</v>
       </c>
       <c r="Q4">
-        <v>21.59154317410727</v>
+        <v>29.26988445230045</v>
       </c>
       <c r="R4">
-        <v>21.59154317410727</v>
+        <v>263.428960070704</v>
       </c>
       <c r="S4">
-        <v>0.07647939290529603</v>
+        <v>0.07659601275561406</v>
       </c>
       <c r="T4">
-        <v>0.07647939290529603</v>
+        <v>0.07659601275561406</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>26.765109733567</v>
+        <v>33.00563866666667</v>
       </c>
       <c r="H5">
-        <v>26.765109733567</v>
+        <v>99.01691600000001</v>
       </c>
       <c r="I5">
-        <v>0.9237538665265977</v>
+        <v>0.9169150302490913</v>
       </c>
       <c r="J5">
-        <v>0.9237538665265977</v>
+        <v>0.9169150302490912</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.4119816923457</v>
+        <v>2.466781666666666</v>
       </c>
       <c r="N5">
-        <v>2.4119816923457</v>
+        <v>7.400345</v>
       </c>
       <c r="O5">
-        <v>0.2475412131236812</v>
+        <v>0.2323672487351883</v>
       </c>
       <c r="P5">
-        <v>0.2475412131236812</v>
+        <v>0.2323672487351882</v>
       </c>
       <c r="Q5">
-        <v>64.5569546709873</v>
+        <v>81.41770435955777</v>
       </c>
       <c r="R5">
-        <v>64.5569546709873</v>
+        <v>732.7593392360201</v>
       </c>
       <c r="S5">
-        <v>0.228667152747685</v>
+        <v>0.2130610229029233</v>
       </c>
       <c r="T5">
-        <v>0.228667152747685</v>
+        <v>0.2130610229029232</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.06917978311268801</v>
+        <v>0.07465466666666666</v>
       </c>
       <c r="H6">
-        <v>0.06917978311268801</v>
+        <v>0.223964</v>
       </c>
       <c r="I6">
-        <v>0.002387626756324167</v>
+        <v>0.002073948231580021</v>
       </c>
       <c r="J6">
-        <v>0.002387626756324167</v>
+        <v>0.00207394823158002</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.65960072191253</v>
+        <v>2.386787</v>
       </c>
       <c r="N6">
-        <v>1.65960072191253</v>
+        <v>7.160361</v>
       </c>
       <c r="O6">
-        <v>0.1703245001016714</v>
+        <v>0.2248318673684458</v>
       </c>
       <c r="P6">
-        <v>0.1703245001016714</v>
+        <v>0.2248318673684458</v>
       </c>
       <c r="Q6">
-        <v>0.1148108179955693</v>
+        <v>0.1781847878893333</v>
       </c>
       <c r="R6">
-        <v>0.1148108179955693</v>
+        <v>1.603663091004</v>
       </c>
       <c r="S6">
-        <v>0.0004066713337002889</v>
+        <v>0.0004662896537316221</v>
       </c>
       <c r="T6">
-        <v>0.0004066713337002889</v>
+        <v>0.0004662896537316219</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.06917978311268801</v>
+        <v>0.07465466666666666</v>
       </c>
       <c r="H7">
-        <v>0.06917978311268801</v>
+        <v>0.223964</v>
       </c>
       <c r="I7">
-        <v>0.002387626756324167</v>
+        <v>0.002073948231580021</v>
       </c>
       <c r="J7">
-        <v>0.002387626756324167</v>
+        <v>0.00207394823158002</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.86547082758351</v>
+        <v>4.875491666666666</v>
       </c>
       <c r="N7">
-        <v>4.86547082758351</v>
+        <v>14.626475</v>
       </c>
       <c r="O7">
-        <v>0.4993423270582937</v>
+        <v>0.4592642308492391</v>
       </c>
       <c r="P7">
-        <v>0.4993423270582937</v>
+        <v>0.4592642308492391</v>
       </c>
       <c r="Q7">
-        <v>0.3365922165933379</v>
+        <v>0.363978205211111</v>
       </c>
       <c r="R7">
-        <v>0.3365922165933379</v>
+        <v>3.2758038469</v>
       </c>
       <c r="S7">
-        <v>0.001192243100649555</v>
+        <v>0.0009524902393977379</v>
       </c>
       <c r="T7">
-        <v>0.001192243100649555</v>
+        <v>0.0009524902393977377</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.06917978311268801</v>
+        <v>0.07465466666666666</v>
       </c>
       <c r="H8">
-        <v>0.06917978311268801</v>
+        <v>0.223964</v>
       </c>
       <c r="I8">
-        <v>0.002387626756324167</v>
+        <v>0.002073948231580021</v>
       </c>
       <c r="J8">
-        <v>0.002387626756324167</v>
+        <v>0.00207394823158002</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8067048253879791</v>
+        <v>0.8868146666666666</v>
       </c>
       <c r="N8">
-        <v>0.8067048253879791</v>
+        <v>2.660444</v>
       </c>
       <c r="O8">
-        <v>0.08279195971635367</v>
+        <v>0.08353665304712675</v>
       </c>
       <c r="P8">
-        <v>0.08279195971635367</v>
+        <v>0.08353665304712675</v>
       </c>
       <c r="Q8">
-        <v>0.05580766485629924</v>
+        <v>0.0662048533351111</v>
       </c>
       <c r="R8">
-        <v>0.05580766485629924</v>
+        <v>0.595843680016</v>
       </c>
       <c r="S8">
-        <v>0.0001976762982272786</v>
+        <v>0.0001732506938592023</v>
       </c>
       <c r="T8">
-        <v>0.0001976762982272786</v>
+        <v>0.0001732506938592022</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.06917978311268801</v>
+        <v>0.07465466666666666</v>
       </c>
       <c r="H9">
-        <v>0.06917978311268801</v>
+        <v>0.223964</v>
       </c>
       <c r="I9">
-        <v>0.002387626756324167</v>
+        <v>0.002073948231580021</v>
       </c>
       <c r="J9">
-        <v>0.002387626756324167</v>
+        <v>0.00207394823158002</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.4119816923457</v>
+        <v>2.466781666666666</v>
       </c>
       <c r="N9">
-        <v>2.4119816923457</v>
+        <v>7.400345</v>
       </c>
       <c r="O9">
-        <v>0.2475412131236812</v>
+        <v>0.2323672487351883</v>
       </c>
       <c r="P9">
-        <v>0.2475412131236812</v>
+        <v>0.2323672487351882</v>
       </c>
       <c r="Q9">
-        <v>0.1668603703482497</v>
+        <v>0.1841567630644444</v>
       </c>
       <c r="R9">
-        <v>0.1668603703482497</v>
+        <v>1.65741086758</v>
       </c>
       <c r="S9">
-        <v>0.0005910360237470442</v>
+        <v>0.0004819176445914585</v>
       </c>
       <c r="T9">
-        <v>0.0005910360237470442</v>
+        <v>0.0004819176445914583</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.82536869647953</v>
+        <v>2.576299333333333</v>
       </c>
       <c r="H10">
-        <v>1.82536869647953</v>
+        <v>7.728898</v>
       </c>
       <c r="I10">
-        <v>0.06299960687606947</v>
+        <v>0.07157103078692272</v>
       </c>
       <c r="J10">
-        <v>0.06299960687606947</v>
+        <v>0.0715710307869227</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.65960072191253</v>
+        <v>2.386787</v>
       </c>
       <c r="N10">
-        <v>1.65960072191253</v>
+        <v>7.160361</v>
       </c>
       <c r="O10">
-        <v>0.1703245001016714</v>
+        <v>0.2248318673684458</v>
       </c>
       <c r="P10">
-        <v>0.1703245001016714</v>
+        <v>0.2248318673684458</v>
       </c>
       <c r="Q10">
-        <v>3.029383206433962</v>
+        <v>6.149077756908667</v>
       </c>
       <c r="R10">
-        <v>3.029383206433962</v>
+        <v>55.341699812178</v>
       </c>
       <c r="S10">
-        <v>0.01073037654776835</v>
+        <v>0.01609144850130836</v>
       </c>
       <c r="T10">
-        <v>0.01073037654776835</v>
+        <v>0.01609144850130836</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.82536869647953</v>
+        <v>2.576299333333333</v>
       </c>
       <c r="H11">
-        <v>1.82536869647953</v>
+        <v>7.728898</v>
       </c>
       <c r="I11">
-        <v>0.06299960687606947</v>
+        <v>0.07157103078692272</v>
       </c>
       <c r="J11">
-        <v>0.06299960687606947</v>
+        <v>0.0715710307869227</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.86547082758351</v>
+        <v>4.875491666666666</v>
       </c>
       <c r="N11">
-        <v>4.86547082758351</v>
+        <v>14.626475</v>
       </c>
       <c r="O11">
-        <v>0.4993423270582937</v>
+        <v>0.4592642308492391</v>
       </c>
       <c r="P11">
-        <v>0.4993423270582937</v>
+        <v>0.4592642308492391</v>
       </c>
       <c r="Q11">
-        <v>8.881278142305291</v>
+        <v>12.56072593050555</v>
       </c>
       <c r="R11">
-        <v>8.881278142305291</v>
+        <v>113.04653337455</v>
       </c>
       <c r="S11">
-        <v>0.03145837030125421</v>
+        <v>0.03287001440544327</v>
       </c>
       <c r="T11">
-        <v>0.03145837030125421</v>
+        <v>0.03287001440544327</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.82536869647953</v>
+        <v>2.576299333333333</v>
       </c>
       <c r="H12">
-        <v>1.82536869647953</v>
+        <v>7.728898</v>
       </c>
       <c r="I12">
-        <v>0.06299960687606947</v>
+        <v>0.07157103078692272</v>
       </c>
       <c r="J12">
-        <v>0.06299960687606947</v>
+        <v>0.0715710307869227</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8067048253879791</v>
+        <v>0.8868146666666666</v>
       </c>
       <c r="N12">
-        <v>0.8067048253879791</v>
+        <v>2.660444</v>
       </c>
       <c r="O12">
-        <v>0.08279195971635367</v>
+        <v>0.08353665304712675</v>
       </c>
       <c r="P12">
-        <v>0.08279195971635367</v>
+        <v>0.08353665304712675</v>
       </c>
       <c r="Q12">
-        <v>1.472533735562202</v>
+        <v>2.284700034523556</v>
       </c>
       <c r="R12">
-        <v>1.472533735562202</v>
+        <v>20.562300310712</v>
       </c>
       <c r="S12">
-        <v>0.005215860914629661</v>
+        <v>0.00597880436707239</v>
       </c>
       <c r="T12">
-        <v>0.005215860914629661</v>
+        <v>0.005978804367072389</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.82536869647953</v>
+        <v>2.576299333333333</v>
       </c>
       <c r="H13">
-        <v>1.82536869647953</v>
+        <v>7.728898</v>
       </c>
       <c r="I13">
-        <v>0.06299960687606947</v>
+        <v>0.07157103078692272</v>
       </c>
       <c r="J13">
-        <v>0.06299960687606947</v>
+        <v>0.0715710307869227</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.4119816923457</v>
+        <v>2.466781666666666</v>
       </c>
       <c r="N13">
-        <v>2.4119816923457</v>
+        <v>7.400345</v>
       </c>
       <c r="O13">
-        <v>0.2475412131236812</v>
+        <v>0.2323672487351883</v>
       </c>
       <c r="P13">
-        <v>0.2475412131236812</v>
+        <v>0.2323672487351882</v>
       </c>
       <c r="Q13">
-        <v>4.402755877689561</v>
+        <v>6.355167963312222</v>
       </c>
       <c r="R13">
-        <v>4.402755877689561</v>
+        <v>57.19651166981</v>
       </c>
       <c r="S13">
-        <v>0.01559499911241724</v>
+        <v>0.01663076351309869</v>
       </c>
       <c r="T13">
-        <v>0.01559499911241724</v>
+        <v>0.01663076351309868</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.314628881525812</v>
+        <v>0.3398056666666667</v>
       </c>
       <c r="H14">
-        <v>0.314628881525812</v>
+        <v>1.019417</v>
       </c>
       <c r="I14">
-        <v>0.01085889984100857</v>
+        <v>0.009439990732406145</v>
       </c>
       <c r="J14">
-        <v>0.01085889984100857</v>
+        <v>0.009439990732406145</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.65960072191253</v>
+        <v>2.386787</v>
       </c>
       <c r="N14">
-        <v>1.65960072191253</v>
+        <v>7.160361</v>
       </c>
       <c r="O14">
-        <v>0.1703245001016714</v>
+        <v>0.2248318673684458</v>
       </c>
       <c r="P14">
-        <v>0.1703245001016714</v>
+        <v>0.2248318673684458</v>
       </c>
       <c r="Q14">
-        <v>0.5221583189147694</v>
+        <v>0.8110437477263334</v>
       </c>
       <c r="R14">
-        <v>0.5221583189147694</v>
+        <v>7.299393729537</v>
       </c>
       <c r="S14">
-        <v>0.001849536687073904</v>
+        <v>0.002122410744307697</v>
       </c>
       <c r="T14">
-        <v>0.001849536687073904</v>
+        <v>0.002122410744307697</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.314628881525812</v>
+        <v>0.3398056666666667</v>
       </c>
       <c r="H15">
-        <v>0.314628881525812</v>
+        <v>1.019417</v>
       </c>
       <c r="I15">
-        <v>0.01085889984100857</v>
+        <v>0.009439990732406145</v>
       </c>
       <c r="J15">
-        <v>0.01085889984100857</v>
+        <v>0.009439990732406145</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.86547082758351</v>
+        <v>4.875491666666666</v>
       </c>
       <c r="N15">
-        <v>4.86547082758351</v>
+        <v>14.626475</v>
       </c>
       <c r="O15">
-        <v>0.4993423270582937</v>
+        <v>0.4592642308492391</v>
       </c>
       <c r="P15">
-        <v>0.4993423270582937</v>
+        <v>0.4592642308492391</v>
       </c>
       <c r="Q15">
-        <v>1.530817644579067</v>
+        <v>1.656719696119444</v>
       </c>
       <c r="R15">
-        <v>1.530817644579067</v>
+        <v>14.910477265075</v>
       </c>
       <c r="S15">
-        <v>0.005422308315902155</v>
+        <v>0.004335450082942453</v>
       </c>
       <c r="T15">
-        <v>0.005422308315902155</v>
+        <v>0.004335450082942453</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.314628881525812</v>
+        <v>0.3398056666666667</v>
       </c>
       <c r="H16">
-        <v>0.314628881525812</v>
+        <v>1.019417</v>
       </c>
       <c r="I16">
-        <v>0.01085889984100857</v>
+        <v>0.009439990732406145</v>
       </c>
       <c r="J16">
-        <v>0.01085889984100857</v>
+        <v>0.009439990732406145</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.8067048253879791</v>
+        <v>0.8868146666666666</v>
       </c>
       <c r="N16">
-        <v>0.8067048253879791</v>
+        <v>2.660444</v>
       </c>
       <c r="O16">
-        <v>0.08279195971635367</v>
+        <v>0.08353665304712675</v>
       </c>
       <c r="P16">
-        <v>0.08279195971635367</v>
+        <v>0.08353665304712675</v>
       </c>
       <c r="Q16">
-        <v>0.2538126369332953</v>
+        <v>0.3013446490164444</v>
       </c>
       <c r="R16">
-        <v>0.2538126369332953</v>
+        <v>2.712101841148</v>
       </c>
       <c r="S16">
-        <v>0.0008990295982007008</v>
+        <v>0.0007885852305811041</v>
       </c>
       <c r="T16">
-        <v>0.0008990295982007008</v>
+        <v>0.0007885852305811041</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.314628881525812</v>
+        <v>0.3398056666666667</v>
       </c>
       <c r="H17">
-        <v>0.314628881525812</v>
+        <v>1.019417</v>
       </c>
       <c r="I17">
-        <v>0.01085889984100857</v>
+        <v>0.009439990732406145</v>
       </c>
       <c r="J17">
-        <v>0.01085889984100857</v>
+        <v>0.009439990732406145</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.4119816923457</v>
+        <v>2.466781666666666</v>
       </c>
       <c r="N17">
-        <v>2.4119816923457</v>
+        <v>7.400345</v>
       </c>
       <c r="O17">
-        <v>0.2475412131236812</v>
+        <v>0.2323672487351883</v>
       </c>
       <c r="P17">
-        <v>0.2475412131236812</v>
+        <v>0.2323672487351882</v>
       </c>
       <c r="Q17">
-        <v>0.7588791021234627</v>
+        <v>0.8382263887627777</v>
       </c>
       <c r="R17">
-        <v>0.7588791021234627</v>
+        <v>7.544037498864999</v>
       </c>
       <c r="S17">
-        <v>0.00268802523983181</v>
+        <v>0.002193544674574891</v>
       </c>
       <c r="T17">
-        <v>0.00268802523983181</v>
+        <v>0.002193544674574891</v>
       </c>
     </row>
   </sheetData>
